--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_17-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_17-22.xlsx
@@ -119,6 +119,9 @@
     <t>DOSTINEX 0.5 MG 2 TABS.</t>
   </si>
   <si>
+    <t>EMEREST 8MG 4ML/3AMP</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
+    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARJI  LOTION</t>
   </si>
   <si>
@@ -269,7 +278,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
@@ -1293,7 +1302,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1313,13 +1322,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1331,7 +1340,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1339,13 +1348,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1365,17 +1374,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1397,7 +1406,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1423,11 +1432,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1443,17 +1452,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1461,7 +1470,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1475,7 +1484,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1487,7 +1496,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1495,17 +1504,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>128.25</v>
+        <v>45</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1521,13 +1530,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1553,11 +1562,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>22.079999999999998</v>
+        <v>128.25</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1573,13 +1582,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1599,17 +1608,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1617,7 +1626,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1625,17 +1634,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>130</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1643,7 +1652,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1651,17 +1660,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1669,7 +1678,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1677,17 +1686,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1695,7 +1704,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1703,17 +1712,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1721,7 +1730,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1729,17 +1738,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1755,17 +1764,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1781,17 +1790,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1807,17 +1816,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1825,7 +1834,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1833,17 +1842,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1851,7 +1860,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1859,13 +1868,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1877,7 +1886,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1885,13 +1894,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1903,7 +1912,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1911,13 +1920,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1937,17 +1946,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1955,7 +1964,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1963,17 +1972,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1981,7 +1990,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1989,17 +1998,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2007,7 +2016,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2015,13 +2024,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2033,7 +2042,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2041,17 +2050,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2059,7 +2068,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2067,17 +2076,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2085,7 +2094,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2093,17 +2102,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2111,7 +2120,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2119,13 +2128,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2137,7 +2146,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2145,13 +2154,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2163,7 +2172,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2171,13 +2180,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2189,7 +2198,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2197,13 +2206,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2215,7 +2224,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2223,51 +2232,129 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="57" ht="26.25" customHeight="1">
-      <c r="K57" s="10">
-        <v>3735.8299999999999</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="11">
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c t="s" r="B57" s="7">
+        <v>88</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c t="s" r="H57" s="8">
+        <v>89</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9">
+        <v>72</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c t="s" r="N57" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c t="s" r="B58" s="7">
         <v>90</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c t="s" r="F58" s="12">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c t="s" r="H58" s="8">
+        <v>9</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9">
+        <v>70</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c t="s" r="N58" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" ht="24.75" customHeight="1">
+      <c r="A59" s="6">
+        <v>56</v>
+      </c>
+      <c t="s" r="B59" s="7">
         <v>91</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c t="s" r="I58" s="14">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c t="s" r="H59" s="8">
         <v>92</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9">
+        <v>45</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c t="s" r="N59" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" ht="26.25" customHeight="1">
+      <c r="K60" s="10">
+        <v>4119.8299999999999</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="11">
+        <v>93</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c t="s" r="F61" s="12">
+        <v>94</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+      <c t="s" r="I61" s="14">
+        <v>95</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="179">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2434,10 +2521,19 @@
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:N61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
